--- a/06-junio/6_ORAINDE/ORAINDE.xlsx
+++ b/06-junio/6_ORAINDE/ORAINDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\6_ORAINDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\6_ORAINDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE806C7-8D01-4F0F-9F63-4FEF84DE0FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73ADC7D-2EB8-4D9C-9EEF-4D9590D15B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27780" yWindow="480" windowWidth="23145" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -74,25 +74,7 @@
     <t>GALAÑ ALDANA</t>
   </si>
   <si>
-    <t>BASE 1</t>
-  </si>
-  <si>
-    <t>BASE 4</t>
-  </si>
-  <si>
-    <t>BASE 5</t>
-  </si>
-  <si>
-    <t>JUB</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>PAMI</t>
-  </si>
-  <si>
-    <t>ABRIL 2025</t>
+    <t>JUNIO Y SAC 2025</t>
   </si>
 </sst>
 </file>
@@ -126,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,7 +117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,25 +155,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,11 +509,13 @@
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -533,9 +528,9 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -546,7 +541,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -555,295 +550,368 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
-        <v>522172.02</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="9">
+        <v>551589.97</v>
+      </c>
+      <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>67978.820000000007</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="9">
+        <v>48129.81</v>
+      </c>
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <f>+B5+C5</f>
-        <v>522172.02</v>
-      </c>
-      <c r="G5" s="6">
+        <v>551589.97</v>
+      </c>
+      <c r="G5" s="9">
         <f>+D5+E5</f>
-        <v>67978.820000000007</v>
-      </c>
-      <c r="H5" s="11">
+        <v>48129.81</v>
+      </c>
+      <c r="H5" s="9">
         <f>+B5+C5+D5+E5</f>
-        <v>590150.84000000008</v>
-      </c>
-      <c r="I5" s="6">
+        <v>599719.78</v>
+      </c>
+      <c r="I5" s="9">
         <f>+H5*2</f>
-        <v>1180301.6800000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
+        <v>1199439.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
-        <v>517001.96</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="9">
+        <v>546128.77</v>
+      </c>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
-        <v>67305.3</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="9">
+        <v>47653.71</v>
+      </c>
+      <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <f>+B6+C6</f>
-        <v>517001.96</v>
-      </c>
-      <c r="G6" s="6">
+        <v>546128.77</v>
+      </c>
+      <c r="G6" s="9">
         <f>+D6+E6</f>
-        <v>67305.3</v>
-      </c>
-      <c r="H6" s="11">
+        <v>47653.71</v>
+      </c>
+      <c r="H6" s="9">
         <f>+B6+C6+D6+E6</f>
-        <v>584307.26</v>
-      </c>
-      <c r="I6" s="6">
+        <v>593782.48</v>
+      </c>
+      <c r="I6" s="9">
         <f>+H6*2</f>
-        <v>1168614.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7">
+        <v>1187564.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11">
         <f>SUM(B5:B6)</f>
-        <v>1039173.98</v>
-      </c>
-      <c r="C7" s="7">
+        <v>1097718.74</v>
+      </c>
+      <c r="C7" s="11">
         <f>SUM(C5:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <f>SUM(D5:D6)</f>
-        <v>135284.12</v>
-      </c>
-      <c r="E7" s="7">
+        <v>95783.51999999999</v>
+      </c>
+      <c r="E7" s="11">
         <f>SUM(E5:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="11">
         <f>SUM(F5:F6)</f>
-        <v>1039173.98</v>
-      </c>
-      <c r="G7" s="6">
+        <v>1097718.74</v>
+      </c>
+      <c r="G7" s="9">
         <f>+D7+E7</f>
-        <v>135284.12</v>
-      </c>
-      <c r="H7" s="12">
+        <v>95783.51999999999</v>
+      </c>
+      <c r="H7" s="11">
         <f>SUM(H5:H6)</f>
-        <v>1174458.1000000001</v>
-      </c>
-      <c r="I7" s="7">
+        <v>1193502.26</v>
+      </c>
+      <c r="I7" s="11">
         <f>SUM(I5:I6)</f>
-        <v>2348916.2000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>1247950.72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="9">
-        <v>89143.09</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9">
-        <v>29376.84</v>
-      </c>
-      <c r="I10" s="9">
-        <v>17362.75</v>
-      </c>
-      <c r="J10" s="9">
-        <f>+H10-I10</f>
-        <v>12014.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>1467024.41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9">
-        <v>578758.52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>17362.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <f>+B10-B11</f>
-        <v>-219073.68999999994</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9">
-        <v>89143.09</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>2674.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="C15" s="13">
-        <v>38588.339999999997</v>
-      </c>
-      <c r="D15" s="13">
-        <v>37438.519999999997</v>
-      </c>
-      <c r="E15" s="13">
-        <f>+C15-D15</f>
-        <v>1149.8199999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>518689.55</v>
-      </c>
-      <c r="C16" s="13">
-        <v>46310.44</v>
-      </c>
-      <c r="D16" s="13">
-        <v>44010.73</v>
-      </c>
-      <c r="E16" s="13">
-        <f>+C16-D16</f>
-        <v>2299.7099999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>767399.71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>124989.26</v>
-      </c>
-      <c r="C18">
-        <v>767399.71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>13748.82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>15560.68</v>
-      </c>
-      <c r="C21">
-        <v>124898.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>3746.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>22421.919999999998</v>
-      </c>
-      <c r="C24">
-        <v>22421.919999999998</v>
-      </c>
-      <c r="D24">
-        <v>13748.82</v>
-      </c>
-      <c r="E24">
-        <f>+C24-D24</f>
-        <v>8673.0999999999985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>15560.68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <f>+A24-A25</f>
-        <v>6861.239999999998</v>
-      </c>
-      <c r="C26">
-        <v>15560.68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>507023.62</v>
-      </c>
+        <v>2387004.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <v>551589.97</v>
+      </c>
+      <c r="C12" s="14">
+        <v>275794.99</v>
+      </c>
+      <c r="D12" s="14">
+        <v>48129.81</v>
+      </c>
+      <c r="E12" s="14">
+        <v>24065.41</v>
+      </c>
+      <c r="F12" s="14">
+        <f>+B12+C12</f>
+        <v>827384.96</v>
+      </c>
+      <c r="G12" s="14">
+        <f>+D12+E12</f>
+        <v>72195.22</v>
+      </c>
+      <c r="H12" s="14">
+        <f>+B12+C12+D12+E12</f>
+        <v>899580.18</v>
+      </c>
+      <c r="I12" s="14">
+        <f>+H12*2</f>
+        <v>1799160.36</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1775094.92</v>
+      </c>
+      <c r="K12" s="17">
+        <v>53974.48</v>
+      </c>
+      <c r="L12" s="17">
+        <v>53252.85</v>
+      </c>
+      <c r="M12" s="17">
+        <f>+K12-L12</f>
+        <v>721.63000000000466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14">
+        <v>546128.77</v>
+      </c>
+      <c r="C13" s="14">
+        <v>273064.39</v>
+      </c>
+      <c r="D13" s="14">
+        <v>47653.71</v>
+      </c>
+      <c r="E13" s="14">
+        <v>23826.86</v>
+      </c>
+      <c r="F13" s="14">
+        <f>+B13+C13</f>
+        <v>819193.16</v>
+      </c>
+      <c r="G13" s="14">
+        <f>+D13+E13</f>
+        <v>71480.570000000007</v>
+      </c>
+      <c r="H13" s="14">
+        <f>+B13+C13+D13+E13</f>
+        <v>890673.73</v>
+      </c>
+      <c r="I13" s="14">
+        <f>+H13*2</f>
+        <v>1781347.46</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1757520.14</v>
+      </c>
+      <c r="K13" s="17">
+        <v>53440.42</v>
+      </c>
+      <c r="L13" s="17">
+        <v>52725.599999999999</v>
+      </c>
+      <c r="M13" s="17">
+        <f>+K13-L13</f>
+        <v>714.81999999999971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16">
+        <f>SUM(B12:B13)</f>
+        <v>1097718.74</v>
+      </c>
+      <c r="C14" s="16">
+        <f>SUM(C12:C13)</f>
+        <v>548859.38</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(D12:D13)</f>
+        <v>95783.51999999999</v>
+      </c>
+      <c r="E14" s="16">
+        <f>SUM(E12:E13)</f>
+        <v>47892.270000000004</v>
+      </c>
+      <c r="F14" s="16">
+        <f>SUM(F12:F13)</f>
+        <v>1646578.12</v>
+      </c>
+      <c r="G14" s="14">
+        <f>+D14+E14</f>
+        <v>143675.78999999998</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(H12:H13)</f>
+        <v>1790253.9100000001</v>
+      </c>
+      <c r="I14" s="16">
+        <f>SUM(I12:I13)</f>
+        <v>3580507.8200000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I7">
